--- a/forwardprimer-v3_40.xlsx
+++ b/forwardprimer-v3_40.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_40" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3745-TCGACAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACAGACATCGTCGGCAGCGTC</t>
+    <t>F3745-TGGAACACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3746-CTGAACACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAACACTATCGTCGGCAGCGTC</t>
+    <t>F3746-ATCACTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACTTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3747-TCAACCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACCTCATTCGTCGGCAGCGTC</t>
+    <t>F3747-AAGTCAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3748-AACCTGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGAAGTTCGTCGGCAGCGTC</t>
+    <t>F3748-ACTAGGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3749-GCAAGTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTCAGATCGTCGGCAGCGTC</t>
+    <t>F3749-TCCAGTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3750-ACCACAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACAGTTGTCGTCGGCAGCGTC</t>
+    <t>F3750-GTAGAGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3751-AAGGTCTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCTCGTTCGTCGGCAGCGTC</t>
+    <t>F3751-GCAGTGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGTGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3752-TTGCAGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAGAGAATCGTCGGCAGCGTC</t>
+    <t>F3752-CTTCGATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGATCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3753-CTTGCTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTCACATCGTCGGCAGCGTC</t>
+    <t>F3753-GCATCAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCAGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3754-CTTGCTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTGAAGTCGTCGGCAGCGTC</t>
+    <t>F3754-ACACAAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3755-GGTAGGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGGTACTTCGTCGGCAGCGTC</t>
+    <t>F3755-ACACCTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3756-ACATCTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCTCAAGTCGTCGGCAGCGTC</t>
+    <t>F3756-ACAAGTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3757-TAGCTACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTACTGATCGTCGGCAGCGTC</t>
+    <t>F3757-GGAACAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3758-AGGAGAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGAGAAGTCGTCGGCAGCGTC</t>
+    <t>F3758-TAGTCTCGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTCGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3759-GTGTCATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCATGAGTCGTCGGCAGCGTC</t>
+    <t>F3759-CAACCACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3760-ACATGGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGGAAGCTCGTCGGCAGCGTC</t>
+    <t>F3760-ATGAGACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3761-TTCCTTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTTCAGTTCGTCGGCAGCGTC</t>
+    <t>F3761-ATCGACTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGACTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3762-ACTCGACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGACTCATCGTCGGCAGCGTC</t>
+    <t>F3762-CGTCTACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCTACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3763-GACATCGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACATCGACTTCGTCGGCAGCGTC</t>
+    <t>F3763-AAGGTCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3764-ATGCACTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCACTCCTTCGTCGGCAGCGTC</t>
+    <t>F3764-GCTGTACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3765-CATGTCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCTACCTCGTCGGCAGCGTC</t>
+    <t>F3765-TTGTCTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3766-GTCTGACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGACGTTTCGTCGGCAGCGTC</t>
+    <t>F3766-CCTCTTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3767-AAGCTCTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCTCTCTCGTCGGCAGCGTC</t>
+    <t>F3767-AGCTAGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3768-AGTGACGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACGACATCGTCGGCAGCGTC</t>
+    <t>F3768-AGAGTGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3769-TTGACTGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTGACGTCGTCGGCAGCGTC</t>
+    <t>F3769-AGCACACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3770-TCCTGAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGAGCATTCGTCGGCAGCGTC</t>
+    <t>F3770-CAGATCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3771-ACTCTAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGGATTCGTCGGCAGCGTC</t>
+    <t>F3771-TCTACTACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACTACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3772-AGTAGATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGATGCATCGTCGGCAGCGTC</t>
+    <t>F3772-AACTGAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3773-GTGAAGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGTTCGTCGTCGGCAGCGTC</t>
+    <t>F3773-TAGTCATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3774-CTTCTGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTGATGTTCGTCGGCAGCGTC</t>
+    <t>F3774-AGAGAAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3775-TCACTACACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTACACCTCGTCGGCAGCGTC</t>
+    <t>F3775-GAGACAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3776-GAGTTCGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCGTGTTCGTCGGCAGCGTC</t>
+    <t>F3776-CGACTACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACTACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3777-GAGACGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGACGATGATCGTCGGCAGCGTC</t>
+    <t>F3777-GATCTGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3778-CAGTACCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACCTTCTCGTCGGCAGCGTC</t>
+    <t>F3778-GGTGCAACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGCAACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3779-TACCAGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGAACCTCGTCGGCAGCGTC</t>
+    <t>F3779-ACAACCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3780-CGTTCATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCATCTCTCGTCGGCAGCGTC</t>
+    <t>F3780-TTCGATGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGATGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3781-GAAGACTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACTTCGTCGTCGGCAGCGTC</t>
+    <t>F3781-TTGAAGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAAGTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3782-ACAGGTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGTCTTGTCGTCGGCAGCGTC</t>
+    <t>F3782-TGAGAGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3783-ACAGTCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCTAGATCGTCGGCAGCGTC</t>
+    <t>F3783-AGAACTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3784-ATCAACTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAACTGCATCGTCGGCAGCGTC</t>
+    <t>F3784-GAACCTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3785-TGACTCTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTCTCCTTCGTCGGCAGCGTC</t>
+    <t>F3785-TCACAGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3786-ACATGCTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGCTTCCTCGTCGGCAGCGTC</t>
+    <t>F3786-TACGTAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3787-TACACCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACCATGGTCGTCGGCAGCGTC</t>
+    <t>F3787-GGAAGAAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGAAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3788-TCTCCAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCAACAGTCGTCGGCAGCGTC</t>
+    <t>F3788-TCTAGCATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3789-AAGCTCAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCAGGATCGTCGGCAGCGTC</t>
+    <t>F3789-CCATCTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCTACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3790-AACTCTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTGCTATCGTCGGCAGCGTC</t>
+    <t>F3790-TCTGTGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3791-GTACAGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGTCAGTCGTCGGCAGCGTC</t>
+    <t>F3791-AGACGATGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGATGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3792-GATCTCGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCGTCTTCGTCGGCAGCGTC</t>
+    <t>F3792-GTCTACACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3793-GAACTCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTCTAGGTCGTCGGCAGCGTC</t>
+    <t>F3793-TGACAGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3794-AGGTACACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACACGATCGTCGGCAGCGTC</t>
+    <t>F3794-GAGTAGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTAGAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3795-AGAAGCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTTCATCGTCGGCAGCGTC</t>
+    <t>F3795-TACAAGTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3796-ACCTGAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTGAAGTTTCGTCGGCAGCGTC</t>
+    <t>F3796-AGGTCAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3797-CAAGAGGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGGACTTCGTCGGCAGCGTC</t>
+    <t>F3797-AGTCACAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3798-AAGCTCCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCCTACTCGTCGGCAGCGTC</t>
+    <t>F3798-TCCACAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3799-ACTCACGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACGTCATCGTCGGCAGCGTC</t>
+    <t>F3799-TCAAGTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3800-AGCACGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACGATGTTCGTCGGCAGCGTC</t>
+    <t>F3800-AGAAGCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3801-TGAGATCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCGAATCGTCGGCAGCGTC</t>
+    <t>F3801-ATGTGAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGAGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3802-CTTCAGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGTGACTCGTCGGCAGCGTC</t>
+    <t>F3802-ACTTGACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3803-TCTGGATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGATCGTTCGTCGGCAGCGTC</t>
+    <t>F3803-TGTGATGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGATGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3804-AAGACTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGCTTTCGTCGGCAGCGTC</t>
+    <t>F3804-AGCAACCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3805-AAGTCAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCAGGTTTCGTCGGCAGCGTC</t>
+    <t>F3805-ACGATCGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATCGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3806-ACTCTCCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCCAAGTCGTCGGCAGCGTC</t>
+    <t>F3806-TCCTGAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3807-TAGATCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCAGTGTCGTCGGCAGCGTC</t>
+    <t>F3807-CATCTGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3808-CACTTGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTTGATGTTCGTCGGCAGCGTC</t>
+    <t>F3808-ATGAGGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3809-GATGCTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTGCTTTCGTCGGCAGCGTC</t>
+    <t>F3809-AGAGAGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAGTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3810-CTAGAAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGAAGACATCGTCGGCAGCGTC</t>
+    <t>F3810-TCCTAGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTAGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3811-ACCTCACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCACACTTCGTCGGCAGCGTC</t>
+    <t>F3811-CAACATCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACATCTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3812-TGACACACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACACACTGTCGTCGGCAGCGTC</t>
+    <t>F3812-AGAAGGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3813-TTCGACAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACAAGATCGTCGGCAGCGTC</t>
+    <t>F3813-ACGTTCCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F3814-CAGGTTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGTTCCAATCGTCGGCAGCGTC</t>
+    <t>F3814-CTTGAGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F3815-GGTCTCTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCTCTTGATCGTCGGCAGCGTC</t>
+    <t>F3815-ACTCTCTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F3816-TGAACTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTTCGTTCGTCGGCAGCGTC</t>
+    <t>F3816-TGTGAAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F3817-TGCTTCTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCTTCCTCGTCGGCAGCGTC</t>
+    <t>F3817-CGAAGGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F3818-ATGCACTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCACTGTCTCGTCGGCAGCGTC</t>
+    <t>F3818-TCCAAGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAAGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F3819-ACAAGAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAGAGATCGTCGGCAGCGTC</t>
+    <t>F3819-AGTCTCGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F3820-AAGATGTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGTGCATCGTCGGCAGCGTC</t>
+    <t>F3820-ACTTCAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCAGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F3821-TGTACCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCACAGTCGTCGGCAGCGTC</t>
+    <t>F3821-GTCGAAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGAAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F3822-TTGCTCCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCCACATCGTCGGCAGCGTC</t>
+    <t>F3822-CCTCAAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCAAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F3823-CAAGAACCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAACCTCTCGTCGGCAGCGTC</t>
+    <t>F3823-CACTAGCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F3824-TGTGCAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCAGTCTTCGTCGGCAGCGTC</t>
+    <t>F3824-AGGTTCTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F3825-TTCGATGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGATGTCATCGTCGGCAGCGTC</t>
+    <t>F3825-TCAGTAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F3826-AGATCCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCACACTCGTCGGCAGCGTC</t>
+    <t>F3826-TCAGCAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F3827-CAACGAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGAACCTTCGTCGGCAGCGTC</t>
+    <t>F3827-CGATCATCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCATCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F3828-TCGATCTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCTTGCTCGTCGGCAGCGTC</t>
+    <t>F3828-ATCCATCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCATCACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F3829-AACCACACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACACGTTCGTCGGCAGCGTC</t>
+    <t>F3829-TAGGTTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F3830-TTCGAACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAACTGCTCGTCGGCAGCGTC</t>
+    <t>F3830-ATCTTGCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGCACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3831-CGAACCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACCACATTCGTCGGCAGCGTC</t>
+    <t>F3831-CTCCTACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3832-GAGACTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGACTGTTCTCGTCGGCAGCGTC</t>
+    <t>F3832-AAGTGCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3833-AACGACAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGACAGATTCGTCGGCAGCGTC</t>
+    <t>F3833-ACTCACTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3834-CTTGTGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTGTTGCTCGTCGGCAGCGTC</t>
+    <t>F3834-ATCCATGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCATGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3835-CAGTGTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGTCCTATCGTCGGCAGCGTC</t>
+    <t>F3835-GTTGTGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3836-ACTCTGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGTGAGTCGTCGGCAGCGTC</t>
+    <t>F3836-AACAGAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3837-ACATGGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGGTTGGTCGTCGGCAGCGTC</t>
+    <t>F3837-TCCACTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3838-TGAGACGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACGTTGTCGTCGGCAGCGTC</t>
+    <t>F3838-TCGATGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3839-CATGTACGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTACGTCTCGTCGGCAGCGTC</t>
+    <t>F3839-CGAAGAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3840-TACTTGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTTGGTAGTCGTCGGCAGCGTC</t>
+    <t>F3840-TACGTTCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTCTCCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
